--- a/experiment result/64_0.1_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.1_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07878793379490845</v>
+        <v>0.02932049762717044</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1185841583201777</v>
+        <v>0.01133864233024414</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1066740032698782</v>
+        <v>0.0121888489527569</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09210714699606104</v>
+        <v>0.04406297949797018</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08110522626271219</v>
+        <v>0.01656592264293975</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09928611612896562</v>
+        <v>0.04323909357662606</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09294975593305274</v>
+        <v>0.004750196824924191</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07971886222437365</v>
+        <v>0.03141093052516108</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07491904746065176</v>
+        <v>0.03358273129486279</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09299351814117128</v>
+        <v>0.03795629210164419</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1297425676957651</v>
+        <v>0.05207417480384616</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1425517160236894</v>
+        <v>0.09450503183973107</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1105014783846398</v>
+        <v>0.01275802707042971</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1471562660097638</v>
+        <v>0.02141173163599596</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08797269155474227</v>
+        <v>0.01309987587444284</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09600725128654304</v>
+        <v>0.008307593139349281</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1159530047885801</v>
+        <v>0.04509200994505543</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09753849833507995</v>
+        <v>0.002069775735941504</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08022566868881939</v>
+        <v>0.0310985549603631</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1187569618695709</v>
+        <v>0.02637441487594571</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08861070456656962</v>
+        <v>0.01191037484434607</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08795751065907491</v>
+        <v>0.007570205073834655</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1024375992167353</v>
+        <v>0.02410014599536695</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05884350062551715</v>
+        <v>0.01012328696344664</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06571822901095395</v>
+        <v>0.006489024283139144</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1236931928695271</v>
+        <v>0.0606943524781509</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08754269739761128</v>
+        <v>0.0263040991900805</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05894685804634527</v>
+        <v>0.04652197970880696</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09541948809369701</v>
+        <v>0.06239706436264537</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1009587034403985</v>
+        <v>0.03034413856441744</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04536394859514696</v>
+        <v>0.001719690419579439</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08617618637708954</v>
+        <v>0.002539701536654734</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1472406557445724</v>
+        <v>0.03153312404449218</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07034498475268793</v>
+        <v>0.002251844952340755</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.071987224476559</v>
+        <v>0.01729665301877362</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1125237513656163</v>
+        <v>0.0289699409871026</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06949889120560411</v>
+        <v>0.002711259274981544</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1409944811490548</v>
+        <v>0.0156740418863509</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05558312288739349</v>
+        <v>0.02930693682609642</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08818281451477916</v>
+        <v>0.04946226531858202</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1146156007014439</v>
+        <v>0.09664762687491772</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07092926327139051</v>
+        <v>0.0228816953129235</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04881562610984001</v>
+        <v>0.02942785859871567</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05773531600371222</v>
+        <v>0.007747043505771087</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05450174001269072</v>
+        <v>0.0108401850032731</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1002614693402938</v>
+        <v>0.01397506014289271</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1271468994543737</v>
+        <v>0.07463516698777466</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08368692274028763</v>
+        <v>0.003076504429855383</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104290075998128</v>
+        <v>0.03536064001329042</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09313446946700434</v>
+        <v>0.002197453885053693</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06956959874540651</v>
+        <v>0.02655228474697182</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09418573302346339</v>
+        <v>0.02573636672878148</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05607146632925451</v>
+        <v>0.0001237423642841851</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06895368278614028</v>
+        <v>0.002825734274352173</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1131166640549</v>
+        <v>0.02059521285162142</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08550559159125999</v>
+        <v>0.03233274425097793</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0890563033475846</v>
+        <v>0.009698785663597857</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1085786866856177</v>
+        <v>0.01559092380015673</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1299624073722931</v>
+        <v>0.04974079145547699</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1076506591344564</v>
+        <v>0.002994180433519886</v>
       </c>
     </row>
   </sheetData>
